--- a/Data Collection/cinemas - 24-08-2022.xlsx
+++ b/Data Collection/cinemas - 24-08-2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmg16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28b2df8a1b1d5e58/Documents/GitHub/TrabajoFinalCurso/Data Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F295E-4F51-4C54-A08E-0EF8471B121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{678F295E-4F51-4C54-A08E-0EF8471B121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56B3298A-8453-4471-B53A-81F94F0EE441}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,15 +618,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
